--- a/CAPTURE Pupilometry Data Dictionary.xlsx
+++ b/CAPTURE Pupilometry Data Dictionary.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihmc40-my.sharepoint.com/personal/acontreras_ihmc_org/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acontreras/Downloads/Blink-Detection-Algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{BBD18B58-EDFB-6E45-9A57-9637076083AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D43FF86-1113-EA4A-B3FC-9ADEF359F3CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B4E764C-A0E7-804F-870D-3F7EDF79D510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19920" yWindow="920" windowWidth="28040" windowHeight="17440" xr2:uid="{F3F9425F-DDD1-6D46-B91C-4B143F48D349}"/>
+    <workbookView xWindow="8740" yWindow="2440" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{F3F9425F-DDD1-6D46-B91C-4B143F48D349}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="compiled_blink_extraction" sheetId="1" r:id="rId1"/>
+    <sheet name="compiled_feature_extraction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
   <si>
     <t>device_name</t>
   </si>
@@ -89,51 +90,6 @@
     <t>right_blink_offsets</t>
   </si>
   <si>
-    <t>concatenated_onsets</t>
-  </si>
-  <si>
-    <t>concatenated_offsets</t>
-  </si>
-  <si>
-    <t>left_average_blink_rate</t>
-  </si>
-  <si>
-    <t>right_average_blink_rate</t>
-  </si>
-  <si>
-    <t>concat_average_blink_rate</t>
-  </si>
-  <si>
-    <t>left_average_blink_duration</t>
-  </si>
-  <si>
-    <t>right_average_blink_duration</t>
-  </si>
-  <si>
-    <t>left_blink_duration_variability</t>
-  </si>
-  <si>
-    <t>right_blink_duration_variability</t>
-  </si>
-  <si>
-    <t>left_missing_data_percentage</t>
-  </si>
-  <si>
-    <t>right_missing_data_percentage</t>
-  </si>
-  <si>
-    <t>left_missing_data_percentage_excluding_blinks</t>
-  </si>
-  <si>
-    <t>right_missing_data_percentage_excluding_blinks</t>
-  </si>
-  <si>
-    <t>left_missing_data_percentage_excluding_blinks_and_min_time_range</t>
-  </si>
-  <si>
-    <t>right_missing_data_percentage_excluding_blinks_and_min_time_range</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -290,15 +246,6 @@
     <t>array of floats</t>
   </si>
   <si>
-    <t>left_average_inter_blink_interval</t>
-  </si>
-  <si>
-    <t>right_average_inter_blink_interval</t>
-  </si>
-  <si>
-    <t>concat_average_inter_blink_interval</t>
-  </si>
-  <si>
     <t>The average time between successive blinks for the left eye.</t>
   </si>
   <si>
@@ -320,12 +267,6 @@
     <t>pupil</t>
   </si>
   <si>
-    <t>left_average_pupil_size</t>
-  </si>
-  <si>
-    <t>right_average_pupil_size</t>
-  </si>
-  <si>
     <t>Average pupil size for the left pupil excluding blink periods.</t>
   </si>
   <si>
@@ -335,10 +276,97 @@
     <t>AU</t>
   </si>
   <si>
-    <t>mean left_pupil_size</t>
-  </si>
-  <si>
-    <t>mean right_pupil_size</t>
+    <t>path_from _content_root</t>
+  </si>
+  <si>
+    <t>output/features/compiled_blink_extraction.csv</t>
+  </si>
+  <si>
+    <t>concat_onsets</t>
+  </si>
+  <si>
+    <t>concat_offsets</t>
+  </si>
+  <si>
+    <t>output/features/compiled_feature_extraction.csv</t>
+  </si>
+  <si>
+    <t>left_ebr</t>
+  </si>
+  <si>
+    <t>right_ebr</t>
+  </si>
+  <si>
+    <t>concat_ebr</t>
+  </si>
+  <si>
+    <t>left_ibi</t>
+  </si>
+  <si>
+    <t>right_ibi</t>
+  </si>
+  <si>
+    <t>concat_ibi</t>
+  </si>
+  <si>
+    <t>left_bd</t>
+  </si>
+  <si>
+    <t>right_bd</t>
+  </si>
+  <si>
+    <t>left_bdv</t>
+  </si>
+  <si>
+    <t>right_bdv</t>
+  </si>
+  <si>
+    <t>left_pupil_size</t>
+  </si>
+  <si>
+    <t>right_pupil_size</t>
+  </si>
+  <si>
+    <t>left_pupil_size_var</t>
+  </si>
+  <si>
+    <t>right_pupil_size_var</t>
+  </si>
+  <si>
+    <t>left_missing</t>
+  </si>
+  <si>
+    <t>right_missing</t>
+  </si>
+  <si>
+    <t>left_missing_exb</t>
+  </si>
+  <si>
+    <t>right_missing_exb</t>
+  </si>
+  <si>
+    <t>left_missing_exb_ext</t>
+  </si>
+  <si>
+    <t>right_missing_exb_ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean left_pupil_size excluding nan's and pupil sizes within blinks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean right_pupil_size excluding nan's and pupil sizes within blinks </t>
+  </si>
+  <si>
+    <t>Average pupil size variability for the left pupil excluding blink periods.</t>
+  </si>
+  <si>
+    <t>Average pupil size variability for the right pupil excluding blink periods.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard deviation of all the left pupil sizes excluding nan periods and sizes within blinks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard deviation of all the right pupil sizes excluding nan periods and sizes within blinks </t>
   </si>
 </sst>
 </file>
@@ -400,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,6 +444,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,17 +782,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EDC55E-3336-B34F-8D3D-B1D37DC6F619}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="21.33203125" style="3"/>
+    <col min="1" max="16384" width="38" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -794,9 +823,13 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -805,733 +838,444 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1">
-        <v>20</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>93</v>
-      </c>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>93</v>
-      </c>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>81</v>
-      </c>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>82</v>
-      </c>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="96" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>82</v>
-      </c>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>82</v>
-      </c>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="128" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>82</v>
-      </c>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1732,6 +1476,933 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEC4B69-D906-ED40-943D-A44BC9E68DEC}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="21.33203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>600</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="9:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="9:9" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="9:9" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="9:9" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
